--- a/data/pca/factorExposure/factorExposure_2009-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01748387490440678</v>
+        <v>0.01694279043471946</v>
       </c>
       <c r="C2">
-        <v>0.002080555360863023</v>
+        <v>0.001447178844299198</v>
       </c>
       <c r="D2">
-        <v>0.009753686812105474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01010197246181545</v>
+      </c>
+      <c r="E2">
+        <v>0.001633228662032563</v>
+      </c>
+      <c r="F2">
+        <v>0.01854127800817939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08591532532507844</v>
+        <v>0.08952969144327244</v>
       </c>
       <c r="C4">
-        <v>0.01999473720414179</v>
+        <v>0.01562397572758683</v>
       </c>
       <c r="D4">
-        <v>0.08038629679183482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08363512914320115</v>
+      </c>
+      <c r="E4">
+        <v>0.03359248800266464</v>
+      </c>
+      <c r="F4">
+        <v>-0.0436259201312454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000523199607138276</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.285101870811596e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001531423441573902</v>
+      </c>
+      <c r="E5">
+        <v>-5.441028688437211e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0006030797588901287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1588246297706303</v>
+        <v>0.1656690971921173</v>
       </c>
       <c r="C6">
-        <v>0.03563008393340696</v>
+        <v>0.03424585023259822</v>
       </c>
       <c r="D6">
-        <v>-0.02656479661650193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01640492072802294</v>
+      </c>
+      <c r="E6">
+        <v>0.01709883729354817</v>
+      </c>
+      <c r="F6">
+        <v>-0.05598976887164245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05664509631786067</v>
+        <v>0.06081672892714517</v>
       </c>
       <c r="C7">
-        <v>0.001962282514600743</v>
+        <v>-0.001167091582301412</v>
       </c>
       <c r="D7">
-        <v>0.04799228693897518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05279417363227311</v>
+      </c>
+      <c r="E7">
+        <v>0.02080362639763856</v>
+      </c>
+      <c r="F7">
+        <v>-0.05049564321960871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05802543960694362</v>
+        <v>0.05483097568001708</v>
       </c>
       <c r="C8">
-        <v>-0.009904993368533455</v>
+        <v>-0.01167350182290581</v>
       </c>
       <c r="D8">
-        <v>0.0291460489380107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03147219591425762</v>
+      </c>
+      <c r="E8">
+        <v>0.01449188917203313</v>
+      </c>
+      <c r="F8">
+        <v>0.03503367448124022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06741819984822485</v>
+        <v>0.07034078202485113</v>
       </c>
       <c r="C9">
-        <v>0.01588504821358799</v>
+        <v>0.01144406946917224</v>
       </c>
       <c r="D9">
-        <v>0.08512835023342548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08814891474136215</v>
+      </c>
+      <c r="E9">
+        <v>0.03247586666311908</v>
+      </c>
+      <c r="F9">
+        <v>-0.06315218277726146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09130923968621772</v>
+        <v>0.08929618281138699</v>
       </c>
       <c r="C10">
-        <v>0.02207761347574697</v>
+        <v>0.02466754590873817</v>
       </c>
       <c r="D10">
-        <v>-0.1644221284351017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1552086376030723</v>
+      </c>
+      <c r="E10">
+        <v>-0.03739757541334475</v>
+      </c>
+      <c r="F10">
+        <v>0.07711245768092728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0882035588224884</v>
+        <v>0.08547671988390095</v>
       </c>
       <c r="C11">
-        <v>0.01738530216093877</v>
+        <v>0.01238305966956352</v>
       </c>
       <c r="D11">
-        <v>0.1188642043783866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1236058065526118</v>
+      </c>
+      <c r="E11">
+        <v>0.06029303761514619</v>
+      </c>
+      <c r="F11">
+        <v>-0.01481855329292059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09325568215542919</v>
+        <v>0.08858713752630627</v>
       </c>
       <c r="C12">
-        <v>0.01544182000782838</v>
+        <v>0.009916425379675778</v>
       </c>
       <c r="D12">
-        <v>0.1238968609468471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1360262120099088</v>
+      </c>
+      <c r="E12">
+        <v>0.06305540900565189</v>
+      </c>
+      <c r="F12">
+        <v>-0.01885815202537354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04481774134179743</v>
+        <v>0.04512468969996792</v>
       </c>
       <c r="C13">
-        <v>0.007456801883629101</v>
+        <v>0.003992714857434447</v>
       </c>
       <c r="D13">
-        <v>0.05015740689607385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05777736316642271</v>
+      </c>
+      <c r="E13">
+        <v>0.001482919862226853</v>
+      </c>
+      <c r="F13">
+        <v>-0.01325209364624393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01813307795901086</v>
+        <v>0.02120708156534432</v>
       </c>
       <c r="C14">
-        <v>0.01457922736827105</v>
+        <v>0.01355969428782529</v>
       </c>
       <c r="D14">
-        <v>0.03269074078240226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03495499135382518</v>
+      </c>
+      <c r="E14">
+        <v>0.02464338287824951</v>
+      </c>
+      <c r="F14">
+        <v>-0.01896149794202232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03416353876825877</v>
+        <v>0.0348563960248991</v>
       </c>
       <c r="C15">
-        <v>0.008405721098622641</v>
+        <v>0.006594275616334981</v>
       </c>
       <c r="D15">
-        <v>0.05008332291580039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05009935678220544</v>
+      </c>
+      <c r="E15">
+        <v>0.01385597698666984</v>
+      </c>
+      <c r="F15">
+        <v>-0.03230440882346537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06973386422640367</v>
+        <v>0.0686804559177176</v>
       </c>
       <c r="C16">
-        <v>0.006411324481328761</v>
+        <v>0.0014004192690084</v>
       </c>
       <c r="D16">
-        <v>0.1198048142714562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.13156475213229</v>
+      </c>
+      <c r="E16">
+        <v>0.07407783692359697</v>
+      </c>
+      <c r="F16">
+        <v>-0.01579555634532028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002178907563975728</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001096085134100614</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002028042254802507</v>
+      </c>
+      <c r="E17">
+        <v>0.00471919999682131</v>
+      </c>
+      <c r="F17">
+        <v>0.003778757322052499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02885356454367092</v>
+        <v>0.04571506303410033</v>
       </c>
       <c r="C18">
-        <v>-0.0002474501146937899</v>
+        <v>-0.0002377742301660048</v>
       </c>
       <c r="D18">
-        <v>0.02071033571399033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02076554964407523</v>
+      </c>
+      <c r="E18">
+        <v>-0.004328839525902562</v>
+      </c>
+      <c r="F18">
+        <v>0.01424895882964459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06258786163333581</v>
+        <v>0.06179730642022585</v>
       </c>
       <c r="C20">
-        <v>0.005322868309461815</v>
+        <v>0.002313586951220084</v>
       </c>
       <c r="D20">
-        <v>0.07892710107571074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08171995782461182</v>
+      </c>
+      <c r="E20">
+        <v>0.06716708783387461</v>
+      </c>
+      <c r="F20">
+        <v>-0.03745406335497168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04028246130168667</v>
+        <v>0.04250828789068876</v>
       </c>
       <c r="C21">
-        <v>0.009892397844567672</v>
+        <v>0.007317492665455681</v>
       </c>
       <c r="D21">
-        <v>0.0403481508559132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0390747733559547</v>
+      </c>
+      <c r="E21">
+        <v>0.002199396860543006</v>
+      </c>
+      <c r="F21">
+        <v>0.01950770183764979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04461088196341549</v>
+        <v>0.04459113989414092</v>
       </c>
       <c r="C22">
-        <v>0.003722139230921318</v>
+        <v>0.002392208447248259</v>
       </c>
       <c r="D22">
-        <v>0.003329456757252698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01141988829232444</v>
+      </c>
+      <c r="E22">
+        <v>0.03009524929100998</v>
+      </c>
+      <c r="F22">
+        <v>0.0947161894719722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04461946606962129</v>
+        <v>0.04459847079368275</v>
       </c>
       <c r="C23">
-        <v>0.003724412334414957</v>
+        <v>0.002394382654768136</v>
       </c>
       <c r="D23">
-        <v>0.003320763095243637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01141321445126391</v>
+      </c>
+      <c r="E23">
+        <v>0.03010323157299917</v>
+      </c>
+      <c r="F23">
+        <v>0.09475714205057131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07753875525520335</v>
+        <v>0.07518646198719343</v>
       </c>
       <c r="C24">
-        <v>0.007317294367693428</v>
+        <v>0.002560263198759234</v>
       </c>
       <c r="D24">
-        <v>0.1222005028122277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1254589396631119</v>
+      </c>
+      <c r="E24">
+        <v>0.05807920517056613</v>
+      </c>
+      <c r="F24">
+        <v>-0.02647932664599303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08217028358796442</v>
+        <v>0.07961269313056508</v>
       </c>
       <c r="C25">
-        <v>0.009778257673050014</v>
+        <v>0.005415697259288687</v>
       </c>
       <c r="D25">
-        <v>0.1091862927683436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1132617158617951</v>
+      </c>
+      <c r="E25">
+        <v>0.04466886906693583</v>
+      </c>
+      <c r="F25">
+        <v>-0.02163760342455774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05610491942499225</v>
+        <v>0.06105417163729063</v>
       </c>
       <c r="C26">
-        <v>0.01871505383046239</v>
+        <v>0.01596225331764164</v>
       </c>
       <c r="D26">
-        <v>0.04592242788579168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05239337550682056</v>
+      </c>
+      <c r="E26">
+        <v>0.03222054012678682</v>
+      </c>
+      <c r="F26">
+        <v>0.01041900710115555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1465818642028244</v>
+        <v>0.1517533312258599</v>
       </c>
       <c r="C28">
-        <v>0.0249017279681212</v>
+        <v>0.03007570846388315</v>
       </c>
       <c r="D28">
-        <v>-0.2502986972901384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2483520324479903</v>
+      </c>
+      <c r="E28">
+        <v>-0.06208894851193862</v>
+      </c>
+      <c r="F28">
+        <v>-0.01488099255148245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02531040108522451</v>
+        <v>0.02734762737933922</v>
       </c>
       <c r="C29">
-        <v>0.009788278488978317</v>
+        <v>0.00898874986540696</v>
       </c>
       <c r="D29">
-        <v>0.03112438715910514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03225511807251619</v>
+      </c>
+      <c r="E29">
+        <v>0.01888943737146125</v>
+      </c>
+      <c r="F29">
+        <v>0.01981379466820618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05283291792923768</v>
+        <v>0.05180861995110388</v>
       </c>
       <c r="C30">
-        <v>0.005975969620278368</v>
+        <v>0.002143530645261672</v>
       </c>
       <c r="D30">
-        <v>0.08266961350226587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.087156062426891</v>
+      </c>
+      <c r="E30">
+        <v>0.02197433263949037</v>
+      </c>
+      <c r="F30">
+        <v>-0.1060666275335543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05096656652099701</v>
+        <v>0.0515498254020963</v>
       </c>
       <c r="C31">
-        <v>0.01877549982334662</v>
+        <v>0.01688403434971845</v>
       </c>
       <c r="D31">
-        <v>0.02517077868589408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02741570244174285</v>
+      </c>
+      <c r="E31">
+        <v>0.03041684430583096</v>
+      </c>
+      <c r="F31">
+        <v>0.009033112459389354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04536409931276304</v>
+        <v>0.05012906978352309</v>
       </c>
       <c r="C32">
-        <v>0.002052899674525941</v>
+        <v>-0.0009688107342707436</v>
       </c>
       <c r="D32">
-        <v>0.03209351389765784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03613430979049756</v>
+      </c>
+      <c r="E32">
+        <v>0.03281155882246164</v>
+      </c>
+      <c r="F32">
+        <v>0.001415421949132716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08771314989779655</v>
+        <v>0.0887063741449572</v>
       </c>
       <c r="C33">
-        <v>0.0137450162163817</v>
+        <v>0.008467421523124857</v>
       </c>
       <c r="D33">
-        <v>0.09336897271951027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1056170469953676</v>
+      </c>
+      <c r="E33">
+        <v>0.05867443292646866</v>
+      </c>
+      <c r="F33">
+        <v>-0.02904138555054388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06523943538738371</v>
+        <v>0.0649719809560408</v>
       </c>
       <c r="C34">
-        <v>0.01548777330557004</v>
+        <v>0.01090610953345147</v>
       </c>
       <c r="D34">
-        <v>0.1012796746742952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1121554110800754</v>
+      </c>
+      <c r="E34">
+        <v>0.04575697597564674</v>
+      </c>
+      <c r="F34">
+        <v>-0.03878023813194587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0269339504506035</v>
+        <v>0.0282915493963919</v>
       </c>
       <c r="C35">
-        <v>0.005051536702958465</v>
+        <v>0.004446880755256235</v>
       </c>
       <c r="D35">
-        <v>0.009974424700811963</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01256171199159747</v>
+      </c>
+      <c r="E35">
+        <v>0.018607492031937</v>
+      </c>
+      <c r="F35">
+        <v>0.003615380410562313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02328531799296972</v>
+        <v>0.02786571029431702</v>
       </c>
       <c r="C36">
-        <v>0.008349459108715462</v>
+        <v>0.007440169075923596</v>
       </c>
       <c r="D36">
-        <v>0.0390930459978122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04195147158470053</v>
+      </c>
+      <c r="E36">
+        <v>0.02082891164853627</v>
+      </c>
+      <c r="F36">
+        <v>-0.01861080120802549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002759244638360311</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0009195113427593284</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003197437454013953</v>
+      </c>
+      <c r="E37">
+        <v>0.001156778204942437</v>
+      </c>
+      <c r="F37">
+        <v>0.0003384941527848183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1034956371319401</v>
+        <v>0.09458038518144235</v>
       </c>
       <c r="C39">
-        <v>0.02230742899221492</v>
+        <v>0.01628842579526702</v>
       </c>
       <c r="D39">
-        <v>0.1551857519788206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538420748244749</v>
+      </c>
+      <c r="E39">
+        <v>0.07455414211920437</v>
+      </c>
+      <c r="F39">
+        <v>-0.00464536244120249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04323463018058939</v>
+        <v>0.04827043338339508</v>
       </c>
       <c r="C40">
-        <v>0.01181656495780199</v>
+        <v>0.01022240278519707</v>
       </c>
       <c r="D40">
-        <v>0.0316765277183626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03838273864456496</v>
+      </c>
+      <c r="E40">
+        <v>0.004721166324761062</v>
+      </c>
+      <c r="F40">
+        <v>0.02419834523917745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02575742463971537</v>
+        <v>0.02813778274652002</v>
       </c>
       <c r="C41">
-        <v>0.008280854004112131</v>
+        <v>0.007858365898774918</v>
       </c>
       <c r="D41">
-        <v>0.01175141692952403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01300330515308275</v>
+      </c>
+      <c r="E41">
+        <v>0.01278370426578531</v>
+      </c>
+      <c r="F41">
+        <v>0.01193976115790156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04059704130396093</v>
+        <v>0.03946040877284131</v>
       </c>
       <c r="C43">
-        <v>0.009127249581035207</v>
+        <v>0.008214809311302633</v>
       </c>
       <c r="D43">
-        <v>0.02268586000258461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02309719471679329</v>
+      </c>
+      <c r="E43">
+        <v>0.02860505496683716</v>
+      </c>
+      <c r="F43">
+        <v>0.02444579743020498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06461456031881906</v>
+        <v>0.0717076957082549</v>
       </c>
       <c r="C44">
-        <v>0.02306479915967547</v>
+        <v>0.01924724551391799</v>
       </c>
       <c r="D44">
-        <v>0.08120564109555871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0893521518634653</v>
+      </c>
+      <c r="E44">
+        <v>0.07761109073624317</v>
+      </c>
+      <c r="F44">
+        <v>-0.2064239886769341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001301252885682873</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6.093419616720945e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.976581984532059e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0002680335178945346</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001423657242602062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02280831927248628</v>
+        <v>0.02524593334210802</v>
       </c>
       <c r="C46">
-        <v>0.005193374141934076</v>
+        <v>0.004235475919944445</v>
       </c>
       <c r="D46">
-        <v>0.01576356011596508</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01880527383248495</v>
+      </c>
+      <c r="E46">
+        <v>0.03640184192088528</v>
+      </c>
+      <c r="F46">
+        <v>0.0231234612460222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05438041872719249</v>
+        <v>0.05321401722594701</v>
       </c>
       <c r="C47">
-        <v>0.00732112943634538</v>
+        <v>0.005726363146479585</v>
       </c>
       <c r="D47">
-        <v>0.01113552350641489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01444376721856359</v>
+      </c>
+      <c r="E47">
+        <v>0.02574774935432576</v>
+      </c>
+      <c r="F47">
+        <v>0.04618113022918754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04782269216694873</v>
+        <v>0.05147687410576619</v>
       </c>
       <c r="C48">
-        <v>0.005590848962682117</v>
+        <v>0.00316618814087091</v>
       </c>
       <c r="D48">
-        <v>0.05257605247251057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05467031710776901</v>
+      </c>
+      <c r="E48">
+        <v>0.0004223903418750982</v>
+      </c>
+      <c r="F48">
+        <v>-0.01627607706284664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1956266468419095</v>
+        <v>0.1983346818544613</v>
       </c>
       <c r="C49">
-        <v>0.02814718073911108</v>
+        <v>0.02472592386766701</v>
       </c>
       <c r="D49">
-        <v>-0.01147673606471623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00643370505893082</v>
+      </c>
+      <c r="E49">
+        <v>0.02155846345592385</v>
+      </c>
+      <c r="F49">
+        <v>-0.05954899690793387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04938515010559175</v>
+        <v>0.05207126177084711</v>
       </c>
       <c r="C50">
-        <v>0.01449184939011347</v>
+        <v>0.01308407505958471</v>
       </c>
       <c r="D50">
-        <v>0.02483812789517192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02705617399605344</v>
+      </c>
+      <c r="E50">
+        <v>0.03155953981815134</v>
+      </c>
+      <c r="F50">
+        <v>-0.0082223528355469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1519715830511388</v>
+        <v>0.1455147275292538</v>
       </c>
       <c r="C52">
-        <v>0.02471828868695742</v>
+        <v>0.02120644851056738</v>
       </c>
       <c r="D52">
-        <v>0.04375613599718933</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0460313988822468</v>
+      </c>
+      <c r="E52">
+        <v>0.03192489050485595</v>
+      </c>
+      <c r="F52">
+        <v>-0.04172951752126135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749198932645158</v>
+        <v>0.1677026808072352</v>
       </c>
       <c r="C53">
-        <v>0.02734420672095088</v>
+        <v>0.02523401716022887</v>
       </c>
       <c r="D53">
-        <v>0.004225207152301741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007387056662671919</v>
+      </c>
+      <c r="E53">
+        <v>0.03824181417438235</v>
+      </c>
+      <c r="F53">
+        <v>-0.08932079379049662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01442493934754021</v>
+        <v>0.01809538791193088</v>
       </c>
       <c r="C54">
-        <v>0.01198715040987646</v>
+        <v>0.01124977534623891</v>
       </c>
       <c r="D54">
-        <v>0.02886254508480248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02829610185056269</v>
+      </c>
+      <c r="E54">
+        <v>0.02121112800333422</v>
+      </c>
+      <c r="F54">
+        <v>0.003395852944098017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1188190371118116</v>
+        <v>0.1165869370484941</v>
       </c>
       <c r="C55">
-        <v>0.02387950642648921</v>
+        <v>0.0218962525563698</v>
       </c>
       <c r="D55">
-        <v>0.003621463212781528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01176092859003696</v>
+      </c>
+      <c r="E55">
+        <v>0.03922969916297742</v>
+      </c>
+      <c r="F55">
+        <v>-0.03211292940981239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806894646878169</v>
+        <v>0.1747677144326998</v>
       </c>
       <c r="C56">
-        <v>0.025661201216826</v>
+        <v>0.02375931096327258</v>
       </c>
       <c r="D56">
-        <v>-0.004858681311150201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0001557691845058017</v>
+      </c>
+      <c r="E56">
+        <v>0.03869808197709107</v>
+      </c>
+      <c r="F56">
+        <v>-0.04792347996199632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04553282809338628</v>
+        <v>0.04453594278349529</v>
       </c>
       <c r="C58">
-        <v>0.004246492032903333</v>
+        <v>0.0002577231121276865</v>
       </c>
       <c r="D58">
-        <v>0.07349287110711344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.08141732685084135</v>
+      </c>
+      <c r="E58">
+        <v>0.04047094280128052</v>
+      </c>
+      <c r="F58">
+        <v>0.04521901293647036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1684867091123933</v>
+        <v>0.1733896260548089</v>
       </c>
       <c r="C59">
-        <v>0.02552766754424398</v>
+        <v>0.02956595293709036</v>
       </c>
       <c r="D59">
-        <v>-0.2132654913869084</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2123945785571806</v>
+      </c>
+      <c r="E59">
+        <v>-0.05609820461988147</v>
+      </c>
+      <c r="F59">
+        <v>0.06719766470972073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2282993833005518</v>
+        <v>0.222445876986383</v>
       </c>
       <c r="C60">
-        <v>0.008304899606139077</v>
+        <v>0.003811449151497033</v>
       </c>
       <c r="D60">
-        <v>0.023278379781057</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02433512663246591</v>
+      </c>
+      <c r="E60">
+        <v>-0.01167458941006574</v>
+      </c>
+      <c r="F60">
+        <v>0.004115681341820283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07545955751713695</v>
+        <v>0.07156414468320546</v>
       </c>
       <c r="C61">
-        <v>0.01603328627239144</v>
+        <v>0.01095677750224271</v>
       </c>
       <c r="D61">
-        <v>0.1162173581034861</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1193251623783034</v>
+      </c>
+      <c r="E61">
+        <v>0.04944383738425118</v>
+      </c>
+      <c r="F61">
+        <v>0.004515958206571593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1715985139013309</v>
+        <v>0.1674126050254757</v>
       </c>
       <c r="C62">
-        <v>0.02839451239387811</v>
+        <v>0.02579083791516056</v>
       </c>
       <c r="D62">
-        <v>0.002782174618743332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008885609243865129</v>
+      </c>
+      <c r="E62">
+        <v>0.04155100882337254</v>
+      </c>
+      <c r="F62">
+        <v>-0.02865168283707282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04270431170212174</v>
+        <v>0.04750874344009735</v>
       </c>
       <c r="C63">
-        <v>0.005991588048788783</v>
+        <v>0.003399520576533852</v>
       </c>
       <c r="D63">
-        <v>0.05979992540889627</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0678748958057441</v>
+      </c>
+      <c r="E63">
+        <v>0.02879724321115351</v>
+      </c>
+      <c r="F63">
+        <v>0.003093747493230722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1142261288729453</v>
+        <v>0.1114095724711559</v>
       </c>
       <c r="C64">
-        <v>0.01900604312619629</v>
+        <v>0.01552197860247611</v>
       </c>
       <c r="D64">
-        <v>0.04254454645727108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04730340625348221</v>
+      </c>
+      <c r="E64">
+        <v>0.033672887443325</v>
+      </c>
+      <c r="F64">
+        <v>-0.02245553544649155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1501971704154298</v>
+        <v>0.1560538192372873</v>
       </c>
       <c r="C65">
-        <v>0.04166471829787838</v>
+        <v>0.04064604800743352</v>
       </c>
       <c r="D65">
-        <v>-0.04949374980551673</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03737395036547058</v>
+      </c>
+      <c r="E65">
+        <v>0.01017715629661564</v>
+      </c>
+      <c r="F65">
+        <v>-0.05897619875136675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1256410696839264</v>
+        <v>0.1143485543656531</v>
       </c>
       <c r="C66">
-        <v>0.02121840041917234</v>
+        <v>0.01458461491688206</v>
       </c>
       <c r="D66">
-        <v>0.1408335744657892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1444525221033633</v>
+      </c>
+      <c r="E66">
+        <v>0.07729776482007326</v>
+      </c>
+      <c r="F66">
+        <v>-0.00797619606141276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06036794200877839</v>
+        <v>0.05344232223779494</v>
       </c>
       <c r="C67">
-        <v>0.006446326727701924</v>
+        <v>0.003894722452570686</v>
       </c>
       <c r="D67">
-        <v>0.05154096501078951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05506240115054908</v>
+      </c>
+      <c r="E67">
+        <v>0.02338055317892901</v>
+      </c>
+      <c r="F67">
+        <v>0.07999798790897474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1175586325644947</v>
+        <v>0.1246243134187213</v>
       </c>
       <c r="C68">
-        <v>0.03365839798176861</v>
+        <v>0.03978532784599753</v>
       </c>
       <c r="D68">
-        <v>-0.2539648417682108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.253071902542145</v>
+      </c>
+      <c r="E68">
+        <v>-0.08831824734058831</v>
+      </c>
+      <c r="F68">
+        <v>-0.02315778497219356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04008078637053797</v>
+        <v>0.03934562155725512</v>
       </c>
       <c r="C69">
-        <v>0.003397689137690985</v>
+        <v>0.00241185174134038</v>
       </c>
       <c r="D69">
-        <v>0.009811554524860587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01079955809323046</v>
+      </c>
+      <c r="E69">
+        <v>0.02985959989723501</v>
+      </c>
+      <c r="F69">
+        <v>0.02099014170829173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06870063456246515</v>
+        <v>0.0697262988694754</v>
       </c>
       <c r="C70">
-        <v>-0.02295456324357065</v>
+        <v>-0.02473191639186216</v>
       </c>
       <c r="D70">
-        <v>0.03465767472662548</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03419980003757198</v>
+      </c>
+      <c r="E70">
+        <v>-0.03603183663533768</v>
+      </c>
+      <c r="F70">
+        <v>0.358075353493765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1369693051175473</v>
+        <v>0.14487407170895</v>
       </c>
       <c r="C71">
-        <v>0.03905869536444297</v>
+        <v>0.04501530476688047</v>
       </c>
       <c r="D71">
-        <v>-0.2683727896971603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2625961790807415</v>
+      </c>
+      <c r="E71">
+        <v>-0.09832996549934893</v>
+      </c>
+      <c r="F71">
+        <v>-0.02649063050722041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1380813668565198</v>
+        <v>0.1437887553553755</v>
       </c>
       <c r="C72">
-        <v>0.03222297838532867</v>
+        <v>0.03151882419348963</v>
       </c>
       <c r="D72">
-        <v>0.002480430990456953</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007399856283410691</v>
+      </c>
+      <c r="E72">
+        <v>0.04409819695201083</v>
+      </c>
+      <c r="F72">
+        <v>-0.03753921594123929</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1969352470809128</v>
+        <v>0.200919199499327</v>
       </c>
       <c r="C73">
-        <v>0.02167278175113832</v>
+        <v>0.01666338911948484</v>
       </c>
       <c r="D73">
-        <v>0.008046298157995031</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01492376720050336</v>
+      </c>
+      <c r="E73">
+        <v>0.0640440250997639</v>
+      </c>
+      <c r="F73">
+        <v>-0.02285969016161994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08835842377263761</v>
+        <v>0.08822015772658948</v>
       </c>
       <c r="C74">
-        <v>0.01616748168393536</v>
+        <v>0.01446525137373408</v>
       </c>
       <c r="D74">
-        <v>0.009701370821506777</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01596807959361817</v>
+      </c>
+      <c r="E74">
+        <v>0.04874067817131581</v>
+      </c>
+      <c r="F74">
+        <v>-0.05037960167140607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1303477734108112</v>
+        <v>0.1226894798646585</v>
       </c>
       <c r="C75">
-        <v>0.03456065533245347</v>
+        <v>0.03152107210435419</v>
       </c>
       <c r="D75">
-        <v>0.02586010055687064</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03164509293010547</v>
+      </c>
+      <c r="E75">
+        <v>0.06123094662481568</v>
+      </c>
+      <c r="F75">
+        <v>-0.01528680718109243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07933852583918234</v>
+        <v>0.09270713371610204</v>
       </c>
       <c r="C77">
-        <v>0.01482935094480187</v>
+        <v>0.01051761355812319</v>
       </c>
       <c r="D77">
-        <v>0.1238075017417588</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1241461175660163</v>
+      </c>
+      <c r="E77">
+        <v>0.05235819394959279</v>
+      </c>
+      <c r="F77">
+        <v>-0.05209648262299465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09753542742295133</v>
+        <v>0.09894608479659155</v>
       </c>
       <c r="C78">
-        <v>0.04454249881827667</v>
+        <v>0.04094913451844793</v>
       </c>
       <c r="D78">
-        <v>0.1137961372293401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1122608717405185</v>
+      </c>
+      <c r="E78">
+        <v>0.07909706362583378</v>
+      </c>
+      <c r="F78">
+        <v>-0.04957817881773924</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1683851751698276</v>
+        <v>0.1639679779047153</v>
       </c>
       <c r="C79">
-        <v>0.03198373677409737</v>
+        <v>0.02897299100490689</v>
       </c>
       <c r="D79">
-        <v>0.01154675019916753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01749592995023711</v>
+      </c>
+      <c r="E79">
+        <v>0.05063993904892184</v>
+      </c>
+      <c r="F79">
+        <v>-0.009596683809440797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08065529842314226</v>
+        <v>0.07933309236375648</v>
       </c>
       <c r="C80">
-        <v>0.004107987058842151</v>
+        <v>0.001605802755294265</v>
       </c>
       <c r="D80">
-        <v>0.05357773687886217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05294524003532676</v>
+      </c>
+      <c r="E80">
+        <v>0.03782169546022118</v>
+      </c>
+      <c r="F80">
+        <v>0.05310312621544507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1178862970771159</v>
+        <v>0.1120211534004728</v>
       </c>
       <c r="C81">
-        <v>0.03645346544219453</v>
+        <v>0.03485997169740878</v>
       </c>
       <c r="D81">
-        <v>0.004740909807637605</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01062660089397238</v>
+      </c>
+      <c r="E81">
+        <v>0.05483374981449552</v>
+      </c>
+      <c r="F81">
+        <v>-0.00341421414895039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1637982625719638</v>
+        <v>0.1614512969609466</v>
       </c>
       <c r="C82">
-        <v>0.03169449923146102</v>
+        <v>0.02956403896425293</v>
       </c>
       <c r="D82">
-        <v>0.004142886481561296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004468133783440243</v>
+      </c>
+      <c r="E82">
+        <v>0.03723291127955487</v>
+      </c>
+      <c r="F82">
+        <v>-0.09078707251962753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05612948936972548</v>
+        <v>0.05192724808340361</v>
       </c>
       <c r="C83">
-        <v>0.005434466612996784</v>
+        <v>0.003423017674475671</v>
       </c>
       <c r="D83">
-        <v>0.03941278015095027</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03969412876858049</v>
+      </c>
+      <c r="E83">
+        <v>-0.008223943001993179</v>
+      </c>
+      <c r="F83">
+        <v>0.03424121398265195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05782991344658302</v>
+        <v>0.05392691580049832</v>
       </c>
       <c r="C84">
-        <v>0.01379464565524106</v>
+        <v>0.01089868679063901</v>
       </c>
       <c r="D84">
-        <v>0.07609715845120033</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07666826412912231</v>
+      </c>
+      <c r="E84">
+        <v>0.01972412797878272</v>
+      </c>
+      <c r="F84">
+        <v>-0.001667980818020088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1402617593706888</v>
+        <v>0.1347098832497824</v>
       </c>
       <c r="C85">
-        <v>0.03522670089735209</v>
+        <v>0.03296672694469326</v>
       </c>
       <c r="D85">
-        <v>0.007156661249979528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01202594734047333</v>
+      </c>
+      <c r="E85">
+        <v>0.0459383764571713</v>
+      </c>
+      <c r="F85">
+        <v>-0.05812697437492223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08250107057307281</v>
+        <v>0.07954940926651075</v>
       </c>
       <c r="C86">
-        <v>-0.004264648739317451</v>
+        <v>-0.007761870523683258</v>
       </c>
       <c r="D86">
-        <v>0.03179601069655864</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05805644513775872</v>
+      </c>
+      <c r="E86">
+        <v>0.1032912143862776</v>
+      </c>
+      <c r="F86">
+        <v>0.805912695782564</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08891973498627138</v>
+        <v>0.08887543282287867</v>
       </c>
       <c r="C87">
-        <v>0.02638996531764101</v>
+        <v>0.02156825962300087</v>
       </c>
       <c r="D87">
-        <v>0.08511875406552877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08888265360005365</v>
+      </c>
+      <c r="E87">
+        <v>-0.05848593049211723</v>
+      </c>
+      <c r="F87">
+        <v>-0.0824165543653957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06167084724740087</v>
+        <v>0.06083460213243769</v>
       </c>
       <c r="C88">
-        <v>0.006769244908935392</v>
+        <v>0.004255776101228536</v>
       </c>
       <c r="D88">
-        <v>0.0535403962990047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05297119665763551</v>
+      </c>
+      <c r="E88">
+        <v>0.03263350946598786</v>
+      </c>
+      <c r="F88">
+        <v>-0.003201764281645929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1275527832605954</v>
+        <v>0.1328709342855925</v>
       </c>
       <c r="C89">
-        <v>0.01440244081096571</v>
+        <v>0.02000869531804637</v>
       </c>
       <c r="D89">
-        <v>-0.230302848515134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2352004017498933</v>
+      </c>
+      <c r="E89">
+        <v>-0.09008495894928158</v>
+      </c>
+      <c r="F89">
+        <v>-0.01096343812179745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1483192825182457</v>
+        <v>0.1600891394009992</v>
       </c>
       <c r="C90">
-        <v>0.03553857370850111</v>
+        <v>0.04221407520388669</v>
       </c>
       <c r="D90">
-        <v>-0.2555197045919597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2598455359747451</v>
+      </c>
+      <c r="E90">
+        <v>-0.118290257760433</v>
+      </c>
+      <c r="F90">
+        <v>-0.01704626316247024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1253192581782555</v>
+        <v>0.1211148409427895</v>
       </c>
       <c r="C91">
-        <v>0.02595585594998747</v>
+        <v>0.02476064001290389</v>
       </c>
       <c r="D91">
-        <v>-0.01954990627838439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01414054313164335</v>
+      </c>
+      <c r="E91">
+        <v>0.0565517321675655</v>
+      </c>
+      <c r="F91">
+        <v>0.02316096905197746</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1495698600505663</v>
+        <v>0.1534980037919512</v>
       </c>
       <c r="C92">
-        <v>0.02666989697953043</v>
+        <v>0.03284221789405548</v>
       </c>
       <c r="D92">
-        <v>-0.2812858163880456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2849733570331224</v>
+      </c>
+      <c r="E92">
+        <v>-0.1073057212077124</v>
+      </c>
+      <c r="F92">
+        <v>0.0007569080658346718</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.153117438921036</v>
+        <v>0.1628132698505397</v>
       </c>
       <c r="C93">
-        <v>0.03166018701376466</v>
+        <v>0.03698784901689196</v>
       </c>
       <c r="D93">
-        <v>-0.2499706014067515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2532065368294295</v>
+      </c>
+      <c r="E93">
+        <v>-0.07258820841866992</v>
+      </c>
+      <c r="F93">
+        <v>-0.01874546570284979</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1295057335485135</v>
+        <v>0.1220016035844557</v>
       </c>
       <c r="C94">
-        <v>0.03055277629919805</v>
+        <v>0.02710469950518442</v>
       </c>
       <c r="D94">
-        <v>0.03879446842992641</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04320692662649739</v>
+      </c>
+      <c r="E94">
+        <v>0.06277581953354192</v>
+      </c>
+      <c r="F94">
+        <v>-0.01851023210645293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1264266553470992</v>
+        <v>0.1292957474690755</v>
       </c>
       <c r="C95">
-        <v>0.01266329777831545</v>
+        <v>0.007324148701972075</v>
       </c>
       <c r="D95">
-        <v>0.09505356277497053</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1057842856570785</v>
+      </c>
+      <c r="E95">
+        <v>0.06813155214766294</v>
+      </c>
+      <c r="F95">
+        <v>0.02135208050244394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1557326697062926</v>
+        <v>0.142078486323241</v>
       </c>
       <c r="C96">
-        <v>-0.9818568882451025</v>
+        <v>-0.9828179759095826</v>
       </c>
       <c r="D96">
-        <v>-0.03478552775103125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05814221834431523</v>
+      </c>
+      <c r="E96">
+        <v>0.05181260143599709</v>
+      </c>
+      <c r="F96">
+        <v>-0.04536034564682568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1895697688087681</v>
+        <v>0.1932841352274533</v>
       </c>
       <c r="C97">
-        <v>0.002370402374596348</v>
+        <v>0.0003344932419374607</v>
       </c>
       <c r="D97">
-        <v>-0.0209088589605296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02611079909585239</v>
+      </c>
+      <c r="E97">
+        <v>0.01675256933694338</v>
+      </c>
+      <c r="F97">
+        <v>0.1909990755144112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1944650478572562</v>
+        <v>0.2005669611762947</v>
       </c>
       <c r="C98">
-        <v>0.01627354076903096</v>
+        <v>0.01137222259603203</v>
       </c>
       <c r="D98">
-        <v>0.008191852515050618</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01058581135958708</v>
+      </c>
+      <c r="E98">
+        <v>-0.08928514999661645</v>
+      </c>
+      <c r="F98">
+        <v>0.0877116000023591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0578149132170868</v>
+        <v>0.0574478558149322</v>
       </c>
       <c r="C99">
-        <v>-0.0002518040419472056</v>
+        <v>-0.002355850637647156</v>
       </c>
       <c r="D99">
-        <v>0.04172595088051074</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04663754967811436</v>
+      </c>
+      <c r="E99">
+        <v>0.02859077545297057</v>
+      </c>
+      <c r="F99">
+        <v>0.006259147338120143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1441256164292851</v>
+        <v>0.1337448049651098</v>
       </c>
       <c r="C100">
-        <v>-0.0369439335172093</v>
+        <v>-0.04655811389339296</v>
       </c>
       <c r="D100">
-        <v>0.4211344805546221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3782241651706961</v>
+      </c>
+      <c r="E100">
+        <v>-0.8867959254363413</v>
+      </c>
+      <c r="F100">
+        <v>0.02301132728204978</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02531719622794108</v>
+        <v>0.02740389796310407</v>
       </c>
       <c r="C101">
-        <v>0.009799746878030169</v>
+        <v>0.009020985641721454</v>
       </c>
       <c r="D101">
-        <v>0.03064024468162698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03179528450849189</v>
+      </c>
+      <c r="E101">
+        <v>0.01831600320876891</v>
+      </c>
+      <c r="F101">
+        <v>0.02223229626986477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
